--- a/docs/practice/performing_anova_in_excel.xlsx
+++ b/docs/practice/performing_anova_in_excel.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CS3403DataStructures\CURE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CURES\Statistics-with-Excel\docs\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89540600-8B89-4CFA-B2F7-5965638DCB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8B214-EF88-4E6E-A4AA-BC9D9FEBF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21440" yWindow="2010" windowWidth="16960" windowHeight="16900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="660" windowWidth="13830" windowHeight="20000" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="original" sheetId="1" r:id="rId1"/>
-    <sheet name="analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="analysis with F test" sheetId="3" r:id="rId3"/>
-    <sheet name="analysis with t tests" sheetId="4" r:id="rId4"/>
+    <sheet name="analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="analysis with F test" sheetId="3" r:id="rId2"/>
+    <sheet name="analysis with t tests" sheetId="4" r:id="rId3"/>
+    <sheet name="practice" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
   <si>
     <t>economics</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>In conclusion, all variances are equal so now we can do  t-tests for equal variances.</t>
+  </si>
+  <si>
+    <t>F test for economics and medicine - need to swap the columns because variance of economics is smaller than for medicine</t>
+  </si>
+  <si>
+    <t>at least one group is different</t>
   </si>
 </sst>
 </file>
@@ -271,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -283,17 +292,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,15 +368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>209759</xdr:colOff>
+      <xdr:colOff>305009</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>50944</xdr:rowOff>
+      <xdr:rowOff>38244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -397,7 +399,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3175000"/>
+          <a:off x="95250" y="3162300"/>
           <a:ext cx="4070559" cy="2794144"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -985,125 +987,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>69</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>54</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>52</v>
-      </c>
-      <c r="C9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>54</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5DB5A8-0D1A-4C3C-A94E-1223B36A5D13}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -1377,12 +1260,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CF4A0-75E6-42BC-811D-15A98A45B252}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1563,6 +1446,9 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E11" s="2" t="s">
@@ -1603,7 +1489,7 @@
       <c r="I12">
         <v>15.196234096692114</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>7.1563578071762569E-5</v>
       </c>
       <c r="K12">
@@ -1658,7 +1544,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1934,7 +1820,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1946,15 +1832,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBD708C-7521-49E3-8A9C-6BE8497B4832}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="15" topLeftCell="S111" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="18" ySplit="15" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="I126" sqref="I126"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2521,122 +2407,115 @@
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="9" t="s">
+      <c r="A79" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79">
         <v>48.333333333333336</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="9" t="s">
+      <c r="A80" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80">
         <v>23.5</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80">
         <v>32.333333333333336</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="9" t="s">
+      <c r="A81" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81">
         <v>9</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="9" t="s">
+      <c r="A82" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82">
         <v>27.285714285714285</v>
       </c>
-      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="9" t="s">
+      <c r="A83" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="9" t="s">
+      <c r="A84" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84">
         <v>14</v>
       </c>
-      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="9" t="s">
+      <c r="A85" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85">
         <v>-4.4318944574160817</v>
       </c>
-      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="9" t="s">
+      <c r="A86" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86">
         <v>2.8441765776580295E-4</v>
       </c>
-      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="9" t="s">
+      <c r="A87" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87">
         <v>1.7613101357748921</v>
       </c>
-      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="9" t="s">
+      <c r="A88" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="5">
         <v>5.688353155316059E-4</v>
       </c>
-      <c r="C88" s="9"/>
       <c r="D88" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="1">
         <v>2.1447866879178044</v>
       </c>
-      <c r="C89" s="10"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
@@ -2645,122 +2524,115 @@
     </row>
     <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12" t="s">
+      <c r="A93" s="2"/>
+      <c r="B93" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
+      <c r="A94" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94">
         <v>60</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94">
         <v>43.666666666666664</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="9" t="s">
+      <c r="A95" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95">
         <v>32.333333333333336</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95">
         <v>50.5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="9" t="s">
+      <c r="A96" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96">
         <v>7</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="9" t="s">
+      <c r="A97" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97">
         <v>42.714285714285715</v>
       </c>
-      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="9" t="s">
+      <c r="A98" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="9" t="s">
+      <c r="A99" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99">
         <v>14</v>
       </c>
-      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="9" t="s">
+      <c r="A100" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100">
         <v>4.9590505416105106</v>
       </c>
-      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="9" t="s">
+      <c r="A101" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101">
         <v>1.04942070445389E-4</v>
       </c>
-      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="9" t="s">
+      <c r="A102" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102">
         <v>1.7613101357748921</v>
       </c>
-      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="9" t="s">
+      <c r="A103" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="5">
         <v>2.0988414089077799E-4</v>
       </c>
-      <c r="C103" s="9"/>
       <c r="D103" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="1">
         <v>2.1447866879178044</v>
       </c>
-      <c r="C104" s="10"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -2769,128 +2641,120 @@
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12" t="s">
+      <c r="A108" s="2"/>
+      <c r="B108" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="9" t="s">
+      <c r="A109" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109">
         <v>48.333333333333336</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109">
         <v>43.666666666666664</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="9" t="s">
+      <c r="A110" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110">
         <v>23.5</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110">
         <v>50.5</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="9" t="s">
+      <c r="A111" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111">
         <v>9</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
+      <c r="A112" t="s">
         <v>35</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112">
         <v>37</v>
       </c>
-      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="9" t="s">
+      <c r="A113" t="s">
         <v>36</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="9" t="s">
+      <c r="A114" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114">
         <v>16</v>
       </c>
-      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="9" t="s">
+      <c r="A115" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115">
         <v>1.6274669424134716</v>
       </c>
-      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="9" t="s">
+      <c r="A116" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116">
         <v>6.1583674517650032E-2</v>
       </c>
-      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="9" t="s">
+      <c r="A117" t="s">
         <v>39</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117">
         <v>1.7458836762762506</v>
       </c>
-      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="9" t="s">
+      <c r="A118" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="5">
         <v>0.12316734903530006</v>
       </c>
-      <c r="C118" s="9"/>
       <c r="D118" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="1">
         <v>2.119905299221255</v>
       </c>
-      <c r="C119" s="10"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>42</v>
       </c>
-      <c r="E121" s="15"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
@@ -2899,11 +2763,11 @@
       <c r="B122">
         <v>43</v>
       </c>
-      <c r="D122" s="14"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E123" s="5"/>
@@ -2915,7 +2779,7 @@
       <c r="B124">
         <v>48</v>
       </c>
-      <c r="D124" s="14"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="5" t="s">
         <v>46</v>
       </c>
@@ -2945,4 +2809,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/practice/performing_anova_in_excel.xlsx
+++ b/docs/practice/performing_anova_in_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CURES\Statistics-with-Excel\docs\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8B214-EF88-4E6E-A4AA-BC9D9FEBF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198B06E5-8CBB-4C35-8BC3-0782F9D07FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="660" windowWidth="13830" windowHeight="20000" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="660" windowWidth="17010" windowHeight="20000" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
   <si>
     <t>economics</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>at least one group is different</t>
+  </si>
+  <si>
+    <t>F test for medicine and history - need to swap columns because variance for medicine is smaller than history</t>
   </si>
 </sst>
 </file>
@@ -722,6 +725,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147726</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412680</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D681DA-79C6-CD89-1BDA-AD3233C3D140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4306976" y="14135101"/>
+          <a:ext cx="3312954" cy="2178050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>23673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>31010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E3A1EE-4349-53E9-5A73-B4B7DA61390A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210051" y="16673373"/>
+          <a:ext cx="3441700" cy="2223487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>126644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598835</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60CF401-B60C-4CE1-D7F1-5A84D38B5704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="19551294"/>
+          <a:ext cx="3576985" cy="2280006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -990,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5DB5A8-0D1A-4C3C-A94E-1223B36A5D13}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803CF4A0-75E6-42BC-811D-15A98A45B252}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1530,17 +1665,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
@@ -1636,7 +1771,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1825,7 +1960,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1" xr:uid="{08B57E85-6538-421D-820B-D8CACA95DB18}"/>
+    <hyperlink ref="A34" r:id="rId1" xr:uid="{08B57E85-6538-421D-820B-D8CACA95DB18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1837,10 +1972,10 @@
   <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="18" ySplit="15" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="15" topLeftCell="S87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="N129" sqref="N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
